--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D11C7D-96F6-4D35-B23E-83B7AA0EFEEA}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30661523-F1A5-4922-97DB-29B0B82712BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date Accessed</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Trumpet Concerto</t>
   </si>
   <si>
-    <t>Arutiunian</t>
-  </si>
-  <si>
     <t>https://open.spotify.com/track/7oB0QBEnGRIJjvlDc8YnM6?si=9f451a316f2f4b89</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">This would be relevant </t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0WooGCm9JU1vC9RSnSzTVW?si=d8343b34fe4e48b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>Alexander Arutiunian</t>
   </si>
 </sst>
 </file>
@@ -183,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,9 +460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,36 +569,44 @@
         <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>45625</v>
+        <v>45632</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.66180555555555554</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>45625</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{619D5D8E-3949-41FE-8A93-292C5E794C99}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{0692C18C-B502-43F4-B7B7-1714FF406DDB}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{3FEAA4F1-08A1-4693-9F33-BF1DA6B69373}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{883E845A-9963-463D-9F3D-8872CEAB97A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30661523-F1A5-4922-97DB-29B0B82712BF}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E63CB21-DE88-4F64-8643-BA2041D1DA55}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Date Accessed</t>
   </si>
@@ -99,16 +99,16 @@
     <t>A classical 20th century orchestral piece, very much reflecting the jazz influences of the period</t>
   </si>
   <si>
-    <t xml:space="preserve">This would be relevant </t>
-  </si>
-  <si>
     <t>https://open.spotify.com/track/0WooGCm9JU1vC9RSnSzTVW?si=d8343b34fe4e48b9</t>
   </si>
   <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
     <t>Alexander Arutiunian</t>
+  </si>
+  <si>
+    <t>A 20th century romantic trumpet concerto, making broad and diverse use of the instruments in the orchestra without losing the clarity or focus on the soloist</t>
+  </si>
+  <si>
+    <t>This would be relevant to my EPQ as it is a reasonably stylistic and free piece of classical music with a diverse use of harmony and instrumentation, and I am considering doing a classical piece for my EPQ</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45625</v>
       </c>
@@ -575,10 +575,13 @@
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45632</v>
       </c>
@@ -589,13 +592,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
